--- a/teammatch2x8.xlsx
+++ b/teammatch2x8.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH93</t>
+          <t>PH11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH16</t>
+          <t>PH42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PH15</t>
+          <t>PH50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PH58</t>
+          <t>PH95</t>
         </is>
       </c>
     </row>
@@ -500,22 +500,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH45</t>
+          <t>PH80</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH35</t>
+          <t>PH54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PH71</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PH88</t>
+          <t>PH19</t>
         </is>
       </c>
     </row>

--- a/teammatch2x8.xlsx
+++ b/teammatch2x8.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH11</t>
+          <t>PH64</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH42</t>
+          <t>PH44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PH50</t>
+          <t>PH98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH44</t>
         </is>
       </c>
     </row>
@@ -500,22 +500,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH80</t>
+          <t>PH34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH54</t>
+          <t>PH88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PH85</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PH19</t>
+          <t>PH64</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Table 1: Round 1</t>
+          <t>Table 1, Round 1</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Table 1: Round 2</t>
+          <t>Table 1, Round 2</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Table 2: Round 1</t>
+          <t>Table 2, Round 1</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Table 2: Round 2</t>
+          <t>Table 2, Round 2</t>
         </is>
       </c>
     </row>

--- a/teammatch2x8.xlsx
+++ b/teammatch2x8.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH64</t>
+          <t>PH16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH87</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PH98</t>
+          <t>PH31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH89</t>
         </is>
       </c>
     </row>
@@ -500,22 +500,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH34</t>
+          <t>PH19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH88</t>
+          <t>PH82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PH64</t>
+          <t>PH89</t>
         </is>
       </c>
     </row>

--- a/teammatch2x8.xlsx
+++ b/teammatch2x8.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Roster" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Boards" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Table1 Scores" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Table2 Scores" sheetId="4" state="visible" r:id="rId4"/>
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH16</t>
+          <t>PH36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH87</t>
+          <t>PH44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PH89</t>
+          <t>PH41</t>
         </is>
       </c>
     </row>
@@ -500,22 +500,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH19</t>
+          <t>PH39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH82</t>
+          <t>PH92</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PH79</t>
+          <t>PH89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PH89</t>
+          <t>PH26</t>
         </is>
       </c>
     </row>
